--- a/biology/Botanique/Manettia_coccinea/Manettia_coccinea.xlsx
+++ b/biology/Botanique/Manettia_coccinea/Manettia_coccinea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Manettia coccinea est une espèce néotropicale de liane néotropicale, appartenant à la famille des Rubiaceae.
 </t>
@@ -511,16 +523,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Manettia coccinea est une liane herbacée volubile.
 Ses feuilles mesurent 3-10 × 1-4 cm et portent 4 ou 5 paires de nervures secondaires. Les pétioles sont longs de 3-10 mm, et les stipules de 1-2 mm.
 On compte 1 ou 2 fleurs par aisselle. Le pédoncule est long de 2-4 cm. Les 4-8 calices mesurent 2-7 mm de long. La corolle de couleur rouge, présente un tube long de 10-18 mm, et des lobes de 5-12 mm.
-Les fruits sont des capsules mesurant environ 10 × 8 mm, et les graines sont longues de 1-2 mm[3].
+Les fruits sont des capsules mesurant environ 10 × 8 mm, et les graines sont longues de 1-2 mm.
 En 1953, Lemée en propose la description suivante de Manettia coccinea :
 « Tiges grêles anguleuses glarbres ou finement poilues ; feuilles de 0,03-0,07 sur 0,01-0,03, en général ovalles acuminées, à base aiguë ou obtuse, minces glabres ou peu poilues, stipules très petites unies au pétiole, finement dentées ; fleurs en général solitaires pédicellées, calice glabre ou poilu, à tube de 3-5 mm. et 8 segments sub-égaux de 1-14 mm réfléchis frangés, corolle rouge hypocratérimorphe, tube de 15-28 mm., très poilu à la base en dedans, limbe à lobes de 4-5 mm. ovales ou triangulaires, étamines incluses ; capsule de 6-10 mm. sur 6-8, glabre. »
-— Albert Lemée, 1953.[4]
-Manettia coccinea a souvent été confondu avec Manettia reclinata qui a des fleurs blanches[5].
+— Albert Lemée, 1953.
+Manettia coccinea a souvent été confondu avec Manettia reclinata qui a des fleurs blanches.
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Manettia coccinea est présente de la Colombie au Brésil en passant par le Venezuela, le Guyana, le Suriname, la Guyane[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manettia coccinea est présente de la Colombie au Brésil en passant par le Venezuela, le Guyana, le Suriname, la Guyane.
 </t>
         </is>
       </c>
@@ -580,11 +596,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Manettia coccinea pousse dans les forêts ripicoles et de plaine, à 50-200 m d'altitude[3]. 
-Sa taxonomie a été précisée[6].
-Manettia coccinea a été retrouvé dans des prélèvements palynologiques anciens de l'Holocène en Guyane[7],[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manettia coccinea pousse dans les forêts ripicoles et de plaine, à 50-200 m d'altitude. 
+Sa taxonomie a été précisée.
+Manettia coccinea a été retrouvé dans des prélèvements palynologiques anciens de l'Holocène en Guyane,.
 </t>
         </is>
       </c>
@@ -613,9 +631,11 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Manettia coccinea contiendrait des alcaloïdes[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manettia coccinea contiendrait des alcaloïdes.
 </t>
         </is>
       </c>
@@ -644,9 +664,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[10] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « 1. NACIBEA (coccinea). calice floris ododentato, foliis ovatis, acuminatis. (Tabula 37. Fig. 1)
 Planta perennis, è radice plures caules nodoſos, ramoſos, tetragonos, volubiles, ſuprà frutices expanſos emittens. Folia ad nodos bina, oppoſita, petiolata, glabra, ovata, acuta. Stipula oblonga, acuta, intrà baſim petiolorum ; ex utroque latere. Flores racemofi, utrinque ad axillas foliorum : pedunculus communis squamulis duabus ad baſim munitus, uti pedunculi partiales.
 Florum calix denticulis odo coronatur. Corolla hypocrateriformis, tubus albus, pundis rubris notatus; limbus ſuperne coccineus &amp; tomentoſus ; faux tubi pilis luteis clauſa.
